--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H2">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>0.1302569816753333</v>
+        <v>0.1168801728177778</v>
       </c>
       <c r="R2">
-        <v>1.172312835078</v>
+        <v>1.05192155536</v>
       </c>
       <c r="S2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="T2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H3">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.01687513747733333</v>
+        <v>0.01719078492444445</v>
       </c>
       <c r="R3">
-        <v>0.151876237296</v>
+        <v>0.15471706432</v>
       </c>
       <c r="S3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="T3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H4">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.01067864836533334</v>
+        <v>0.01212029901333333</v>
       </c>
       <c r="R4">
-        <v>0.096107835288</v>
+        <v>0.10908269112</v>
       </c>
       <c r="S4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="T4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.02530666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.07592</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.334861</v>
+      </c>
+      <c r="O5">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P5">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q5">
+        <v>0.002824738568888889</v>
+      </c>
+      <c r="R5">
+        <v>0.02542264712</v>
+      </c>
+      <c r="S5">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="T5">
+        <v>0.01895594202983874</v>
       </c>
     </row>
   </sheetData>
